--- a/bioprojects/subcaste_bees_PRJNA104931/treatmentTables.xlsx
+++ b/bioprojects/subcaste_bees_PRJNA104931/treatmentTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/lab_files/projects/seesaw_test/by_project/subcaste_bees_PRJNA104931/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/invert_meth_and_transcription/bioprojects/subcaste_bees_PRJNA104931/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A446D03B-8B29-F54A-B814-E4E0CE0BB023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3C3A7-E734-6F4A-A58F-0530F7CB5C13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="7280" windowWidth="38080" windowHeight="17180" activeTab="1"/>
+    <workbookView xWindow="8840" yWindow="3840" windowWidth="29560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subcaste_bees_SraRunTable" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="218">
   <si>
     <t>Assay_Type</t>
   </si>
@@ -662,13 +662,28 @@
   </si>
   <si>
     <t>control</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>treatInfo</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Forager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -803,8 +818,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,6 +1005,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1145,9 +1172,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1502,11 +1532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2439,80 +2469,80 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>41193</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>28635</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>202</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="4">
         <v>41132</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="4">
         <v>41168</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4216,11 +4246,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4501,7 +4531,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -4512,7 +4542,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4522,8 +4552,9 @@
       <c r="C19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -4533,8 +4564,9 @@
       <c r="C20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -4544,8 +4576,9 @@
       <c r="C21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -4555,8 +4588,9 @@
       <c r="C22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -4566,8 +4600,9 @@
       <c r="C23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -4577,8 +4612,9 @@
       <c r="C24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -4588,8 +4624,9 @@
       <c r="C25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -4599,8 +4636,9 @@
       <c r="C26" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -4610,8 +4648,9 @@
       <c r="C27" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -4621,8 +4660,9 @@
       <c r="C28" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -4632,8 +4672,9 @@
       <c r="C29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -4643,6 +4684,7 @@
       <c r="C30" t="s">
         <v>201</v>
       </c>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4650,325 +4692,159 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1">
-        <v>41193</v>
-      </c>
-      <c r="G1">
-        <v>28635</v>
-      </c>
-      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2">
-        <v>56909</v>
-      </c>
-      <c r="G2">
-        <v>39732</v>
-      </c>
-      <c r="H2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3">
-        <v>29274</v>
-      </c>
-      <c r="G3">
-        <v>20407</v>
-      </c>
-      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4">
-        <v>29759</v>
-      </c>
-      <c r="G4">
-        <v>19856</v>
-      </c>
-      <c r="H4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5">
-        <v>26707</v>
-      </c>
-      <c r="G5">
-        <v>17688</v>
-      </c>
-      <c r="H5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6">
-        <v>43535</v>
-      </c>
-      <c r="G6">
-        <v>29142</v>
-      </c>
-      <c r="H6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7">
-        <v>34472</v>
-      </c>
-      <c r="G7">
-        <v>24000</v>
-      </c>
-      <c r="H7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8">
-        <v>37189</v>
-      </c>
-      <c r="G8">
-        <v>25577</v>
-      </c>
-      <c r="H8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9">
-        <v>23339</v>
-      </c>
-      <c r="G9">
-        <v>16355</v>
-      </c>
-      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10">
-        <v>31705</v>
-      </c>
-      <c r="G10">
-        <v>21172</v>
-      </c>
-      <c r="H10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11">
-        <v>34610</v>
-      </c>
-      <c r="G11">
-        <v>23260</v>
-      </c>
-      <c r="H11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12">
-        <v>26855</v>
-      </c>
-      <c r="G12">
-        <v>17934</v>
-      </c>
-      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4977,7 +4853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
